--- a/output_data/charts/0700000US390496184099999.xlsx
+++ b/output_data/charts/0700000US390496184099999.xlsx
@@ -131,17 +131,7 @@
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14000000000000001"/>
-          <c:y val="0.13"/>
-          <c:w val="0.80000000000000004"/>
-          <c:h val="0.67000000000000004"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
@@ -179,29 +169,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>45292</c:v>
+                  <c:v>45839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45839</c:v>
+                  <c:v>47665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47665</c:v>
+                  <c:v>49491</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49491</c:v>
+                  <c:v>51318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51318</c:v>
+                  <c:v>53144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53144</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>54970</c:v>
                 </c:pt>
               </c:numCache>
@@ -209,13 +196,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4434</c:v>
-                </c:pt>
+                <c:ptCount val="6"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -255,29 +239,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>45292</c:v>
+                  <c:v>45839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45839</c:v>
+                  <c:v>47665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47665</c:v>
+                  <c:v>49491</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49491</c:v>
+                  <c:v>51318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51318</c:v>
+                  <c:v>53144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53144</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>54970</c:v>
                 </c:pt>
               </c:numCache>
@@ -285,26 +266,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4405</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>4405</c:v>
+                  <c:v>4442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4442</c:v>
+                  <c:v>4539</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4539</c:v>
+                  <c:v>4661</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4661</c:v>
+                  <c:v>4805</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4805</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>4839</c:v>
                 </c:pt>
               </c:numCache>
@@ -319,6 +300,8 @@
         <c:axId val="50010001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="54970.0"/>
+          <c:min val="36708.0"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy" sourceLinked="0"/>
@@ -716,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -740,57 +723,49 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4">
-        <v>45292</v>
-      </c>
-      <c r="B2" s="2">
-        <v>4434</v>
+        <v>45839</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4405</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4">
-        <v>45839</v>
+        <v>47665</v>
       </c>
       <c r="C3" s="2">
-        <v>4405</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4">
-        <v>47665</v>
+        <v>49491</v>
       </c>
       <c r="C4" s="2">
-        <v>4442</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4">
-        <v>49491</v>
+        <v>51318</v>
       </c>
       <c r="C5" s="2">
-        <v>4539</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4">
-        <v>51318</v>
+        <v>53144</v>
       </c>
       <c r="C6" s="2">
-        <v>4661</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4">
-        <v>53144</v>
+        <v>54970</v>
       </c>
       <c r="C7" s="2">
-        <v>4805</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4">
-        <v>54970</v>
-      </c>
-      <c r="C8" s="2">
         <v>4839</v>
       </c>
     </row>
